--- a/战绩.xlsx
+++ b/战绩.xlsx
@@ -508,8 +508,8 @@
   <dimension ref="A1:AA791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="3" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C763" sqref="C763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/战绩.xlsx
+++ b/战绩.xlsx
@@ -509,7 +509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C763" sqref="C763"/>
+      <selection pane="bottomLeft" activeCell="D763" sqref="D763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/战绩.xlsx
+++ b/战绩.xlsx
@@ -509,7 +509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D763" sqref="D763"/>
+      <selection pane="bottomLeft" activeCell="B770" sqref="B770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -556,19 +556,19 @@
       </c>
       <c r="B2" s="2">
         <f>COUNTA(B$4:B3007)</f>
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C2" s="2">
         <f>COUNTA(C$4:C3007)</f>
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="D2" s="2">
         <f>COUNTA(D$4:D3007)</f>
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E2" s="2">
         <f>COUNTA(E$4:E3007)</f>
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="F2" s="2">
         <f>COUNTA(F$4:F3007)</f>
@@ -580,11 +580,11 @@
       </c>
       <c r="H2" s="2">
         <f>COUNTA(H$4:H3007)</f>
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="I2" s="2">
         <f>COUNTA(I$4:I3007)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -594,19 +594,19 @@
       </c>
       <c r="B3" s="2">
         <f>SUM(B$4:B3007)</f>
-        <v>6904</v>
+        <v>6898</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(C$4:C3007)</f>
-        <v>4864</v>
+        <v>5386</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(D$4:D3007)</f>
-        <v>-1823</v>
+        <v>-1731</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(E$4:E3007)</f>
-        <v>-4307</v>
+        <v>-4811</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(F$4:F3007)</f>
@@ -618,11 +618,11 @@
       </c>
       <c r="H3" s="2">
         <f>SUM(H$4:H3007)</f>
-        <v>4895</v>
+        <v>4827</v>
       </c>
       <c r="I3" s="2">
         <f>SUM(I$4:I3007)</f>
-        <v>864</v>
+        <v>828</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>IF(SUM(B3:I3)=0,"√","×")</f>
@@ -630,35 +630,35 @@
       </c>
       <c r="L3">
         <f>B$2</f>
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="M3">
         <f>B$3</f>
-        <v>6904</v>
+        <v>6898</v>
       </c>
       <c r="N3">
         <f>C$2</f>
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="O3">
         <f>C$3</f>
-        <v>4864</v>
+        <v>5386</v>
       </c>
       <c r="P3">
         <f>D$2</f>
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q3">
         <f>D$3</f>
-        <v>-1823</v>
+        <v>-1731</v>
       </c>
       <c r="R3">
         <f>E$2</f>
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="S3">
         <f>E$3</f>
-        <v>-4307</v>
+        <v>-4811</v>
       </c>
       <c r="T3">
         <f>F$2</f>
@@ -678,19 +678,19 @@
       </c>
       <c r="X3">
         <f>H$2</f>
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="Y3">
         <f>H$3</f>
-        <v>4895</v>
+        <v>4827</v>
       </c>
       <c r="Z3">
         <f>I$2</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA3">
         <f>I$3</f>
-        <v>864</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -19678,14 +19678,24 @@
       </c>
     </row>
     <row r="764" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A764" s="1"/>
-      <c r="B764" s="1"/>
-      <c r="C764" s="1"/>
+      <c r="A764" s="5">
+        <v>44261.920138888891</v>
+      </c>
+      <c r="B764" s="1">
+        <v>56</v>
+      </c>
+      <c r="C764" s="1">
+        <v>54</v>
+      </c>
       <c r="D764" s="1"/>
-      <c r="E764" s="1"/>
+      <c r="E764" s="1">
+        <v>-120</v>
+      </c>
       <c r="F764" s="1"/>
       <c r="G764" s="1"/>
-      <c r="H764" s="1"/>
+      <c r="H764" s="1">
+        <v>10</v>
+      </c>
       <c r="I764" s="1"/>
       <c r="J764" s="1" t="str">
         <f t="shared" ref="J764:J772" si="12">IF(SUM($B764:$I764)=0,"√","×")</f>
@@ -19693,14 +19703,24 @@
       </c>
     </row>
     <row r="765" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A765" s="1"/>
-      <c r="B765" s="1"/>
-      <c r="C765" s="1"/>
+      <c r="A765" s="5">
+        <v>44261.934027777781</v>
+      </c>
+      <c r="B765" s="1">
+        <v>66</v>
+      </c>
+      <c r="C765" s="1">
+        <v>-120</v>
+      </c>
       <c r="D765" s="1"/>
-      <c r="E765" s="1"/>
+      <c r="E765" s="1">
+        <v>128</v>
+      </c>
       <c r="F765" s="1"/>
       <c r="G765" s="1"/>
-      <c r="H765" s="1"/>
+      <c r="H765" s="1">
+        <v>-74</v>
+      </c>
       <c r="I765" s="1"/>
       <c r="J765" s="1" t="str">
         <f t="shared" si="12"/>
@@ -19708,14 +19728,24 @@
       </c>
     </row>
     <row r="766" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A766" s="1"/>
-      <c r="B766" s="1"/>
-      <c r="C766" s="1"/>
+      <c r="A766" s="5">
+        <v>44261.948611111111</v>
+      </c>
+      <c r="B766" s="1">
+        <v>-146</v>
+      </c>
+      <c r="C766" s="1">
+        <v>204</v>
+      </c>
       <c r="D766" s="1"/>
-      <c r="E766" s="1"/>
+      <c r="E766" s="1">
+        <v>18</v>
+      </c>
       <c r="F766" s="1"/>
       <c r="G766" s="1"/>
-      <c r="H766" s="1"/>
+      <c r="H766" s="1">
+        <v>-76</v>
+      </c>
       <c r="I766" s="1"/>
       <c r="J766" s="1" t="str">
         <f t="shared" si="12"/>
@@ -19723,14 +19753,24 @@
       </c>
     </row>
     <row r="767" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A767" s="1"/>
-      <c r="B767" s="1"/>
-      <c r="C767" s="1"/>
+      <c r="A767" s="5">
+        <v>44261.963888888888</v>
+      </c>
+      <c r="B767" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C767" s="1">
+        <v>68</v>
+      </c>
       <c r="D767" s="1"/>
-      <c r="E767" s="1"/>
+      <c r="E767" s="1">
+        <v>-34</v>
+      </c>
       <c r="F767" s="1"/>
       <c r="G767" s="1"/>
-      <c r="H767" s="1"/>
+      <c r="H767" s="1">
+        <v>-32</v>
+      </c>
       <c r="I767" s="1"/>
       <c r="J767" s="1" t="str">
         <f t="shared" si="12"/>
@@ -19738,14 +19778,24 @@
       </c>
     </row>
     <row r="768" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A768" s="1"/>
-      <c r="B768" s="1"/>
-      <c r="C768" s="1"/>
+      <c r="A768" s="5">
+        <v>44261.978472222225</v>
+      </c>
+      <c r="B768" s="1">
+        <v>-22</v>
+      </c>
+      <c r="C768" s="1">
+        <v>56</v>
+      </c>
       <c r="D768" s="1"/>
-      <c r="E768" s="1"/>
+      <c r="E768" s="1">
+        <v>-166</v>
+      </c>
       <c r="F768" s="1"/>
       <c r="G768" s="1"/>
-      <c r="H768" s="1"/>
+      <c r="H768" s="1">
+        <v>132</v>
+      </c>
       <c r="I768" s="1"/>
       <c r="J768" s="1" t="str">
         <f t="shared" si="12"/>
@@ -19753,14 +19803,24 @@
       </c>
     </row>
     <row r="769" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A769" s="1"/>
-      <c r="B769" s="1"/>
-      <c r="C769" s="1"/>
+      <c r="A769" s="5">
+        <v>44261.995138888888</v>
+      </c>
+      <c r="B769" s="1">
+        <v>42</v>
+      </c>
+      <c r="C769" s="1">
+        <v>64</v>
+      </c>
       <c r="D769" s="1"/>
-      <c r="E769" s="1"/>
+      <c r="E769" s="1">
+        <v>-78</v>
+      </c>
       <c r="F769" s="1"/>
       <c r="G769" s="1"/>
-      <c r="H769" s="1"/>
+      <c r="H769" s="1">
+        <v>-28</v>
+      </c>
       <c r="I769" s="1"/>
       <c r="J769" s="1" t="str">
         <f t="shared" si="12"/>
@@ -19768,15 +19828,25 @@
       </c>
     </row>
     <row r="770" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A770" s="1"/>
+      <c r="A770" s="5">
+        <v>44262.609722222223</v>
+      </c>
       <c r="B770" s="1"/>
-      <c r="C770" s="1"/>
-      <c r="D770" s="1"/>
-      <c r="E770" s="1"/>
+      <c r="C770" s="1">
+        <v>196</v>
+      </c>
+      <c r="D770" s="1">
+        <v>92</v>
+      </c>
+      <c r="E770" s="1">
+        <v>-252</v>
+      </c>
       <c r="F770" s="1"/>
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
-      <c r="I770" s="1"/>
+      <c r="I770" s="1">
+        <v>-36</v>
+      </c>
       <c r="J770" s="1" t="str">
         <f t="shared" si="12"/>
         <v>√</v>

--- a/战绩.xlsx
+++ b/战绩.xlsx
@@ -202,7 +202,22 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -505,11 +520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA791"/>
+  <dimension ref="A1:J791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B770" sqref="B770"/>
+      <pane ySplit="3" topLeftCell="A758" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A775" sqref="A775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -518,7 +533,7 @@
     <col min="2" max="9" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -550,25 +565,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
         <f>COUNTA(B$4:B3007)</f>
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C2" s="2">
         <f>COUNTA(C$4:C3007)</f>
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D2" s="2">
         <f>COUNTA(D$4:D3007)</f>
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E2" s="2">
         <f>COUNTA(E$4:E3007)</f>
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="F2" s="2">
         <f>COUNTA(F$4:F3007)</f>
@@ -584,29 +599,29 @@
       </c>
       <c r="I2" s="2">
         <f>COUNTA(I$4:I3007)</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>SUM(B$4:B3007)</f>
-        <v>6898</v>
+        <v>6697</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(C$4:C3007)</f>
-        <v>5386</v>
+        <v>5795</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(D$4:D3007)</f>
-        <v>-1731</v>
+        <v>-1691</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(E$4:E3007)</f>
-        <v>-4811</v>
+        <v>-5023</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(F$4:F3007)</f>
@@ -622,78 +637,14 @@
       </c>
       <c r="I3" s="2">
         <f>SUM(I$4:I3007)</f>
-        <v>828</v>
+        <v>792</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>IF(SUM(B3:I3)=0,"√","×")</f>
         <v>√</v>
       </c>
-      <c r="L3">
-        <f>B$2</f>
-        <v>679</v>
-      </c>
-      <c r="M3">
-        <f>B$3</f>
-        <v>6898</v>
-      </c>
-      <c r="N3">
-        <f>C$2</f>
-        <v>574</v>
-      </c>
-      <c r="O3">
-        <f>C$3</f>
-        <v>5386</v>
-      </c>
-      <c r="P3">
-        <f>D$2</f>
-        <v>519</v>
-      </c>
-      <c r="Q3">
-        <f>D$3</f>
-        <v>-1731</v>
-      </c>
-      <c r="R3">
-        <f>E$2</f>
-        <v>434</v>
-      </c>
-      <c r="S3">
-        <f>E$3</f>
-        <v>-4811</v>
-      </c>
-      <c r="T3">
-        <f>F$2</f>
-        <v>147</v>
-      </c>
-      <c r="U3">
-        <f>F$3</f>
-        <v>-2744</v>
-      </c>
-      <c r="V3">
-        <f>G$2</f>
-        <v>163</v>
-      </c>
-      <c r="W3">
-        <f>G$3</f>
-        <v>-8653</v>
-      </c>
-      <c r="X3">
-        <f>H$2</f>
-        <v>441</v>
-      </c>
-      <c r="Y3">
-        <f>H$3</f>
-        <v>4827</v>
-      </c>
-      <c r="Z3">
-        <f>I$2</f>
-        <v>104</v>
-      </c>
-      <c r="AA3">
-        <f>I$3</f>
-        <v>828</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43855.98541666667</v>
       </c>
@@ -714,11 +665,11 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="str">
-        <f t="shared" ref="J4:J67" si="0">IF(SUM($B4:$I4)=0,"√","×")</f>
-        <v>√</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J4:J67" si="0">IF(SUM(B4:I4)=0,"√","×")</f>
+        <v>√</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43855.99722222222</v>
       </c>
@@ -743,7 +694,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43856.012499999997</v>
       </c>
@@ -768,7 +719,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43856.020138888889</v>
       </c>
@@ -793,7 +744,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43856.033333333333</v>
       </c>
@@ -818,7 +769,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43856.061111111114</v>
       </c>
@@ -843,7 +794,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43856.654861111114</v>
       </c>
@@ -868,7 +819,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43856.689583333333</v>
       </c>
@@ -893,7 +844,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43856.706944444442</v>
       </c>
@@ -918,7 +869,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43856.823611111111</v>
       </c>
@@ -943,7 +894,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43856.890972222223</v>
       </c>
@@ -968,7 +919,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43856.909722222219</v>
       </c>
@@ -993,7 +944,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43856.926388888889</v>
       </c>
@@ -1647,11 +1598,11 @@
       <c r="A42" s="5">
         <v>43858.84375</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1">
+        <v>-110</v>
+      </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1">
-        <v>-110</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1">
         <v>-105</v>
       </c>
@@ -2314,7 +2265,7 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="str">
-        <f t="shared" ref="J68:J434" si="1">IF(SUM($B68:$I68)=0,"√","×")</f>
+        <f t="shared" ref="J68:J131" si="1">IF(SUM(B68:I68)=0,"√","×")</f>
         <v>√</v>
       </c>
     </row>
@@ -3139,7 +3090,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1" t="str">
-        <f>IF(SUM($B101:$I101)=0,"√","×")</f>
+        <f t="shared" si="1"/>
         <v>√</v>
       </c>
     </row>
@@ -3164,7 +3115,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1" t="str">
-        <f>IF(SUM($B102:$I102)=0,"√","×")</f>
+        <f t="shared" si="1"/>
         <v>√</v>
       </c>
     </row>
@@ -3914,7 +3865,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J132:J195" si="2">IF(SUM(B132:I132)=0,"√","×")</f>
         <v>√</v>
       </c>
     </row>
@@ -3939,7 +3890,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -3964,7 +3915,7 @@
       </c>
       <c r="I134" s="1"/>
       <c r="J134" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -3989,7 +3940,7 @@
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4014,7 +3965,7 @@
       </c>
       <c r="I136" s="1"/>
       <c r="J136" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4039,7 +3990,7 @@
       </c>
       <c r="I137" s="1"/>
       <c r="J137" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4064,7 +4015,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4089,7 +4040,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4114,7 +4065,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4139,7 +4090,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4164,7 +4115,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4189,7 +4140,7 @@
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4214,7 +4165,7 @@
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4239,7 +4190,7 @@
       </c>
       <c r="I145" s="1"/>
       <c r="J145" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4264,7 +4215,7 @@
       </c>
       <c r="I146" s="1"/>
       <c r="J146" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4289,7 +4240,7 @@
       </c>
       <c r="I147" s="1"/>
       <c r="J147" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4314,7 +4265,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4339,7 +4290,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4364,7 +4315,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4389,7 +4340,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4414,7 +4365,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4439,7 +4390,7 @@
       </c>
       <c r="I153" s="1"/>
       <c r="J153" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4464,7 +4415,7 @@
       </c>
       <c r="I154" s="1"/>
       <c r="J154" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4489,7 +4440,7 @@
       </c>
       <c r="I155" s="1"/>
       <c r="J155" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4514,7 +4465,7 @@
       </c>
       <c r="I156" s="1"/>
       <c r="J156" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4539,7 +4490,7 @@
       </c>
       <c r="I157" s="1"/>
       <c r="J157" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4547,10 +4498,10 @@
       <c r="A158" s="5">
         <v>43868.849305555559</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1">
         <v>-125</v>
       </c>
-      <c r="C158" s="1"/>
       <c r="D158" s="1">
         <v>220</v>
       </c>
@@ -4564,7 +4515,7 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4589,7 +4540,7 @@
       </c>
       <c r="I159" s="1"/>
       <c r="J159" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4614,7 +4565,7 @@
       </c>
       <c r="I160" s="1"/>
       <c r="J160" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4639,7 +4590,7 @@
       </c>
       <c r="I161" s="1"/>
       <c r="J161" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4664,7 +4615,7 @@
       </c>
       <c r="I162" s="1"/>
       <c r="J162" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4689,7 +4640,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4714,7 +4665,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4739,7 +4690,7 @@
       </c>
       <c r="I165" s="1"/>
       <c r="J165" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4764,7 +4715,7 @@
       </c>
       <c r="I166" s="1"/>
       <c r="J166" s="1" t="str">
-        <f>IF(SUM($B166:$I166)=0,"√","×")</f>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4789,7 +4740,7 @@
       </c>
       <c r="I167" s="1"/>
       <c r="J167" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4814,7 +4765,7 @@
       </c>
       <c r="I168" s="1"/>
       <c r="J168" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4839,7 +4790,7 @@
       </c>
       <c r="I169" s="1"/>
       <c r="J169" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4864,7 +4815,7 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4889,7 +4840,7 @@
       </c>
       <c r="I171" s="1"/>
       <c r="J171" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4914,7 +4865,7 @@
       </c>
       <c r="I172" s="1"/>
       <c r="J172" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4939,7 +4890,7 @@
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4964,7 +4915,7 @@
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -4989,7 +4940,7 @@
       </c>
       <c r="I175" s="1"/>
       <c r="J175" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5014,7 +4965,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5039,7 +4990,7 @@
       </c>
       <c r="I177" s="1"/>
       <c r="J177" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5064,7 +5015,7 @@
       </c>
       <c r="I178" s="1"/>
       <c r="J178" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5089,7 +5040,7 @@
       </c>
       <c r="I179" s="1"/>
       <c r="J179" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5114,7 +5065,7 @@
       </c>
       <c r="I180" s="1"/>
       <c r="J180" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5139,7 +5090,7 @@
       </c>
       <c r="I181" s="1"/>
       <c r="J181" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5164,7 +5115,7 @@
       </c>
       <c r="I182" s="1"/>
       <c r="J182" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5189,7 +5140,7 @@
       </c>
       <c r="I183" s="1"/>
       <c r="J183" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5214,7 +5165,7 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5239,7 +5190,7 @@
       </c>
       <c r="I185" s="1"/>
       <c r="J185" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5264,7 +5215,7 @@
       </c>
       <c r="I186" s="1"/>
       <c r="J186" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5289,7 +5240,7 @@
       </c>
       <c r="I187" s="1"/>
       <c r="J187" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5314,7 +5265,7 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1" t="str">
-        <f>IF(SUM($B188:$I188)=0,"√","×")</f>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5339,7 +5290,7 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5364,7 +5315,7 @@
       </c>
       <c r="I190" s="1"/>
       <c r="J190" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5389,7 +5340,7 @@
       </c>
       <c r="I191" s="1"/>
       <c r="J191" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5414,7 +5365,7 @@
       </c>
       <c r="I192" s="1"/>
       <c r="J192" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5439,7 +5390,7 @@
       </c>
       <c r="I193" s="1"/>
       <c r="J193" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5464,7 +5415,7 @@
       </c>
       <c r="I194" s="1"/>
       <c r="J194" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5489,7 +5440,7 @@
       </c>
       <c r="I195" s="1"/>
       <c r="J195" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>√</v>
       </c>
     </row>
@@ -5514,7 +5465,7 @@
       </c>
       <c r="I196" s="1"/>
       <c r="J196" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J196:J259" si="3">IF(SUM(B196:I196)=0,"√","×")</f>
         <v>√</v>
       </c>
     </row>
@@ -5539,7 +5490,7 @@
       </c>
       <c r="I197" s="1"/>
       <c r="J197" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5564,7 +5515,7 @@
       </c>
       <c r="I198" s="1"/>
       <c r="J198" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5589,7 +5540,7 @@
       </c>
       <c r="I199" s="1"/>
       <c r="J199" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5614,7 +5565,7 @@
       </c>
       <c r="I200" s="1"/>
       <c r="J200" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5639,7 +5590,7 @@
       </c>
       <c r="I201" s="1"/>
       <c r="J201" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5664,7 +5615,7 @@
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5689,7 +5640,7 @@
       </c>
       <c r="I203" s="1"/>
       <c r="J203" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5714,7 +5665,7 @@
       </c>
       <c r="I204" s="1"/>
       <c r="J204" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5739,7 +5690,7 @@
       </c>
       <c r="I205" s="1"/>
       <c r="J205" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5764,7 +5715,7 @@
       </c>
       <c r="I206" s="1"/>
       <c r="J206" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5789,7 +5740,7 @@
       </c>
       <c r="I207" s="1"/>
       <c r="J207" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5814,7 +5765,7 @@
       </c>
       <c r="I208" s="1"/>
       <c r="J208" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5839,7 +5790,7 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5864,7 +5815,7 @@
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5889,7 +5840,7 @@
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5914,7 +5865,7 @@
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5939,7 +5890,7 @@
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5964,7 +5915,7 @@
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -5989,7 +5940,7 @@
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6014,7 +5965,7 @@
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6039,7 +5990,7 @@
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6064,7 +6015,7 @@
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6089,7 +6040,7 @@
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6114,7 +6065,7 @@
       </c>
       <c r="I220" s="1"/>
       <c r="J220" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6139,7 +6090,7 @@
       </c>
       <c r="I221" s="1"/>
       <c r="J221" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6164,7 +6115,7 @@
       </c>
       <c r="I222" s="1"/>
       <c r="J222" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6189,7 +6140,7 @@
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6214,7 +6165,7 @@
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6239,7 +6190,7 @@
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6264,7 +6215,7 @@
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6289,7 +6240,7 @@
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6314,7 +6265,7 @@
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6339,7 +6290,7 @@
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6364,7 +6315,7 @@
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6389,7 +6340,7 @@
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6414,7 +6365,7 @@
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6439,7 +6390,7 @@
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6464,7 +6415,7 @@
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6489,7 +6440,7 @@
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6514,7 +6465,7 @@
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6539,7 +6490,7 @@
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6564,7 +6515,7 @@
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6589,7 +6540,7 @@
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6614,7 +6565,7 @@
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6639,7 +6590,7 @@
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6664,7 +6615,7 @@
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6689,7 +6640,7 @@
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6714,7 +6665,7 @@
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6739,7 +6690,7 @@
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6764,7 +6715,7 @@
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6789,7 +6740,7 @@
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6814,7 +6765,7 @@
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6839,7 +6790,7 @@
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6864,7 +6815,7 @@
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6889,7 +6840,7 @@
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6914,7 +6865,7 @@
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6939,7 +6890,7 @@
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6964,7 +6915,7 @@
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -6989,7 +6940,7 @@
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -7014,7 +6965,7 @@
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -7039,7 +6990,7 @@
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -7064,7 +7015,7 @@
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -7089,7 +7040,7 @@
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>√</v>
       </c>
     </row>
@@ -7114,7 +7065,7 @@
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J260:J323" si="4">IF(SUM(B260:I260)=0,"√","×")</f>
         <v>√</v>
       </c>
     </row>
@@ -7139,7 +7090,7 @@
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7164,7 +7115,7 @@
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7189,7 +7140,7 @@
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7214,7 +7165,7 @@
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7239,7 +7190,7 @@
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7264,7 +7215,7 @@
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7289,7 +7240,7 @@
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7314,7 +7265,7 @@
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7339,7 +7290,7 @@
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7364,7 +7315,7 @@
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7389,7 +7340,7 @@
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7414,7 +7365,7 @@
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7439,7 +7390,7 @@
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7464,7 +7415,7 @@
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7489,7 +7440,7 @@
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7514,7 +7465,7 @@
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7539,7 +7490,7 @@
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7564,7 +7515,7 @@
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7589,7 +7540,7 @@
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7614,7 +7565,7 @@
       </c>
       <c r="I280" s="1"/>
       <c r="J280" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7639,7 +7590,7 @@
       </c>
       <c r="I281" s="1"/>
       <c r="J281" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7664,7 +7615,7 @@
       </c>
       <c r="I282" s="1"/>
       <c r="J282" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7688,7 +7639,7 @@
       <c r="G283" s="1"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7713,7 +7664,7 @@
       </c>
       <c r="I284" s="1"/>
       <c r="J284" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7738,7 +7689,7 @@
       </c>
       <c r="I285" s="1"/>
       <c r="J285" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7763,7 +7714,7 @@
       </c>
       <c r="I286" s="1"/>
       <c r="J286" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7788,7 +7739,7 @@
       </c>
       <c r="I287" s="1"/>
       <c r="J287" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7813,7 +7764,7 @@
       </c>
       <c r="I288" s="1"/>
       <c r="J288" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7838,7 +7789,7 @@
       </c>
       <c r="I289" s="1"/>
       <c r="J289" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7863,7 +7814,7 @@
       </c>
       <c r="I290" s="1"/>
       <c r="J290" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7888,7 +7839,7 @@
       </c>
       <c r="I291" s="1"/>
       <c r="J291" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7913,7 +7864,7 @@
       </c>
       <c r="I292" s="1"/>
       <c r="J292" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7938,7 +7889,7 @@
       </c>
       <c r="I293" s="1"/>
       <c r="J293" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7963,7 +7914,7 @@
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -7988,7 +7939,7 @@
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8013,7 +7964,7 @@
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8038,7 +7989,7 @@
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8063,7 +8014,7 @@
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8088,7 +8039,7 @@
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8113,7 +8064,7 @@
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8138,7 +8089,7 @@
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
       <c r="J301" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8163,7 +8114,7 @@
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
       <c r="J302" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8188,7 +8139,7 @@
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
       <c r="J303" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8213,7 +8164,7 @@
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
       <c r="J304" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8238,7 +8189,7 @@
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
       <c r="J305" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8263,7 +8214,7 @@
       </c>
       <c r="I306" s="1"/>
       <c r="J306" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8288,7 +8239,7 @@
       </c>
       <c r="I307" s="1"/>
       <c r="J307" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8313,7 +8264,7 @@
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
       <c r="J308" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8338,7 +8289,7 @@
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
       <c r="J309" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8363,7 +8314,7 @@
       </c>
       <c r="I310" s="1"/>
       <c r="J310" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8388,7 +8339,7 @@
       </c>
       <c r="I311" s="1"/>
       <c r="J311" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8413,7 +8364,7 @@
       </c>
       <c r="I312" s="1"/>
       <c r="J312" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8438,7 +8389,7 @@
       </c>
       <c r="I313" s="1"/>
       <c r="J313" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8463,7 +8414,7 @@
       </c>
       <c r="I314" s="1"/>
       <c r="J314" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8488,7 +8439,7 @@
       </c>
       <c r="I315" s="1"/>
       <c r="J315" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8513,7 +8464,7 @@
       </c>
       <c r="I316" s="1"/>
       <c r="J316" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8538,7 +8489,7 @@
       </c>
       <c r="I317" s="1"/>
       <c r="J317" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8563,7 +8514,7 @@
       </c>
       <c r="I318" s="1"/>
       <c r="J318" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8588,7 +8539,7 @@
       </c>
       <c r="I319" s="1"/>
       <c r="J319" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8613,7 +8564,7 @@
       </c>
       <c r="I320" s="1"/>
       <c r="J320" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8638,7 +8589,7 @@
       </c>
       <c r="I321" s="1"/>
       <c r="J321" s="1" t="str">
-        <f t="shared" ref="J321:J384" si="2">IF(SUM($B321:$I321)=0,"√","×")</f>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8663,7 +8614,7 @@
       </c>
       <c r="I322" s="1"/>
       <c r="J322" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8688,7 +8639,7 @@
       </c>
       <c r="I323" s="1"/>
       <c r="J323" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>√</v>
       </c>
     </row>
@@ -8713,7 +8664,7 @@
       </c>
       <c r="I324" s="1"/>
       <c r="J324" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J324:J387" si="5">IF(SUM(B324:I324)=0,"√","×")</f>
         <v>√</v>
       </c>
     </row>
@@ -8738,7 +8689,7 @@
       </c>
       <c r="I325" s="1"/>
       <c r="J325" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -8763,7 +8714,7 @@
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
       <c r="J326" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -8788,7 +8739,7 @@
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
       <c r="J327" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -8813,7 +8764,7 @@
       </c>
       <c r="I328" s="1"/>
       <c r="J328" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -8838,7 +8789,7 @@
       </c>
       <c r="I329" s="1"/>
       <c r="J329" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -8863,7 +8814,7 @@
       </c>
       <c r="I330" s="1"/>
       <c r="J330" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -8888,7 +8839,7 @@
       </c>
       <c r="I331" s="1"/>
       <c r="J331" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -8913,7 +8864,7 @@
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
       <c r="J332" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -8938,7 +8889,7 @@
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
       <c r="J333" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -8963,7 +8914,7 @@
       </c>
       <c r="I334" s="1"/>
       <c r="J334" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -8988,7 +8939,7 @@
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
       <c r="J335" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9013,7 +8964,7 @@
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
       <c r="J336" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9038,7 +8989,7 @@
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
       <c r="J337" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9063,7 +9014,7 @@
       </c>
       <c r="I338" s="1"/>
       <c r="J338" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9088,7 +9039,7 @@
       </c>
       <c r="I339" s="1"/>
       <c r="J339" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9113,7 +9064,7 @@
       </c>
       <c r="I340" s="1"/>
       <c r="J340" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9138,7 +9089,7 @@
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
       <c r="J341" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9163,7 +9114,7 @@
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
       <c r="J342" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9188,7 +9139,7 @@
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
       <c r="J343" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9213,7 +9164,7 @@
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
       <c r="J344" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9238,7 +9189,7 @@
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
       <c r="J345" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9263,7 +9214,7 @@
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
       <c r="J346" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9288,7 +9239,7 @@
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
       <c r="J347" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9313,7 +9264,7 @@
       </c>
       <c r="I348" s="1"/>
       <c r="J348" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9338,7 +9289,7 @@
       </c>
       <c r="I349" s="1"/>
       <c r="J349" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9363,7 +9314,7 @@
       </c>
       <c r="I350" s="1"/>
       <c r="J350" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9388,7 +9339,7 @@
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
       <c r="J351" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9413,7 +9364,7 @@
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
       <c r="J352" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9438,7 +9389,7 @@
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
       <c r="J353" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9463,7 +9414,7 @@
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
       <c r="J354" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9488,7 +9439,7 @@
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
       <c r="J355" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9513,7 +9464,7 @@
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9538,7 +9489,7 @@
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9563,7 +9514,7 @@
       </c>
       <c r="I358" s="1"/>
       <c r="J358" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9588,7 +9539,7 @@
       </c>
       <c r="I359" s="1"/>
       <c r="J359" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9613,7 +9564,7 @@
       </c>
       <c r="I360" s="1"/>
       <c r="J360" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9638,7 +9589,7 @@
       </c>
       <c r="I361" s="1"/>
       <c r="J361" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9663,7 +9614,7 @@
       </c>
       <c r="I362" s="1"/>
       <c r="J362" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9688,7 +9639,7 @@
       </c>
       <c r="I363" s="1"/>
       <c r="J363" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9713,7 +9664,7 @@
       </c>
       <c r="I364" s="1"/>
       <c r="J364" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9738,7 +9689,7 @@
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
       <c r="J365" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9763,7 +9714,7 @@
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
       <c r="J366" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9788,7 +9739,7 @@
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9813,7 +9764,7 @@
       </c>
       <c r="I368" s="1"/>
       <c r="J368" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9838,7 +9789,7 @@
       </c>
       <c r="I369" s="1"/>
       <c r="J369" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9863,7 +9814,7 @@
       </c>
       <c r="I370" s="1"/>
       <c r="J370" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9888,7 +9839,7 @@
       </c>
       <c r="I371" s="1"/>
       <c r="J371" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9913,7 +9864,7 @@
       </c>
       <c r="I372" s="1"/>
       <c r="J372" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9938,7 +9889,7 @@
       </c>
       <c r="I373" s="1"/>
       <c r="J373" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9963,7 +9914,7 @@
       </c>
       <c r="I374" s="1"/>
       <c r="J374" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -9988,7 +9939,7 @@
       </c>
       <c r="I375" s="1"/>
       <c r="J375" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -10013,7 +9964,7 @@
       </c>
       <c r="I376" s="1"/>
       <c r="J376" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -10038,7 +9989,7 @@
       </c>
       <c r="I377" s="1"/>
       <c r="J377" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -10063,7 +10014,7 @@
       </c>
       <c r="I378" s="1"/>
       <c r="J378" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -10088,7 +10039,7 @@
       </c>
       <c r="I379" s="1"/>
       <c r="J379" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -10113,7 +10064,7 @@
       </c>
       <c r="I380" s="1"/>
       <c r="J380" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -10138,7 +10089,7 @@
       </c>
       <c r="I381" s="1"/>
       <c r="J381" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -10163,7 +10114,7 @@
       </c>
       <c r="I382" s="1"/>
       <c r="J382" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -10188,7 +10139,7 @@
       </c>
       <c r="I383" s="1"/>
       <c r="J383" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -10213,7 +10164,7 @@
       </c>
       <c r="I384" s="1"/>
       <c r="J384" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -10238,7 +10189,7 @@
       </c>
       <c r="I385" s="1"/>
       <c r="J385" s="1" t="str">
-        <f t="shared" ref="J385:J409" si="3">IF(SUM($B385:$I385)=0,"√","×")</f>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -10263,7 +10214,7 @@
       </c>
       <c r="I386" s="1"/>
       <c r="J386" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -10288,7 +10239,7 @@
       </c>
       <c r="I387" s="1"/>
       <c r="J387" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>√</v>
       </c>
     </row>
@@ -10313,7 +10264,7 @@
       </c>
       <c r="I388" s="1"/>
       <c r="J388" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J388:J451" si="6">IF(SUM(B388:I388)=0,"√","×")</f>
         <v>√</v>
       </c>
     </row>
@@ -10338,7 +10289,7 @@
       </c>
       <c r="I389" s="1"/>
       <c r="J389" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10363,7 +10314,7 @@
       </c>
       <c r="I390" s="1"/>
       <c r="J390" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10388,7 +10339,7 @@
       </c>
       <c r="I391" s="1"/>
       <c r="J391" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10413,7 +10364,7 @@
       </c>
       <c r="I392" s="1"/>
       <c r="J392" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10438,7 +10389,7 @@
       </c>
       <c r="I393" s="1"/>
       <c r="J393" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10463,7 +10414,7 @@
       </c>
       <c r="I394" s="1"/>
       <c r="J394" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10488,7 +10439,7 @@
       </c>
       <c r="I395" s="1"/>
       <c r="J395" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10513,7 +10464,7 @@
       </c>
       <c r="I396" s="1"/>
       <c r="J396" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10538,7 +10489,7 @@
       </c>
       <c r="I397" s="1"/>
       <c r="J397" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10563,7 +10514,7 @@
       </c>
       <c r="I398" s="1"/>
       <c r="J398" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10588,7 +10539,7 @@
       </c>
       <c r="I399" s="1"/>
       <c r="J399" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10613,7 +10564,7 @@
       </c>
       <c r="I400" s="1"/>
       <c r="J400" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10638,7 +10589,7 @@
       </c>
       <c r="I401" s="1"/>
       <c r="J401" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10663,7 +10614,7 @@
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
       <c r="J402" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10688,7 +10639,7 @@
       </c>
       <c r="I403" s="1"/>
       <c r="J403" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10713,7 +10664,7 @@
       </c>
       <c r="I404" s="1"/>
       <c r="J404" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10738,7 +10689,7 @@
       </c>
       <c r="I405" s="1"/>
       <c r="J405" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10763,7 +10714,7 @@
       </c>
       <c r="I406" s="1"/>
       <c r="J406" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10788,7 +10739,7 @@
       </c>
       <c r="I407" s="1"/>
       <c r="J407" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10813,7 +10764,7 @@
       </c>
       <c r="I408" s="1"/>
       <c r="J408" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10838,7 +10789,7 @@
       </c>
       <c r="I409" s="1"/>
       <c r="J409" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10863,7 +10814,7 @@
       </c>
       <c r="I410" s="1"/>
       <c r="J410" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10888,7 +10839,7 @@
       </c>
       <c r="I411" s="1"/>
       <c r="J411" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10913,7 +10864,7 @@
       </c>
       <c r="I412" s="1"/>
       <c r="J412" s="1" t="str">
-        <f t="shared" ref="J412:J433" si="4">IF(SUM($B412:$I412)=0,"√","×")</f>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10938,7 +10889,7 @@
       </c>
       <c r="I413" s="1"/>
       <c r="J413" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10963,7 +10914,7 @@
       </c>
       <c r="I414" s="1"/>
       <c r="J414" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -10988,7 +10939,7 @@
       </c>
       <c r="I415" s="1"/>
       <c r="J415" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11013,7 +10964,7 @@
       </c>
       <c r="I416" s="1"/>
       <c r="J416" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11038,7 +10989,7 @@
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
       <c r="J417" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11063,7 +11014,7 @@
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
       <c r="J418" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11088,7 +11039,7 @@
       <c r="H419" s="1"/>
       <c r="I419" s="1"/>
       <c r="J419" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11113,7 +11064,7 @@
       <c r="H420" s="1"/>
       <c r="I420" s="1"/>
       <c r="J420" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11138,7 +11089,7 @@
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
       <c r="J421" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11163,7 +11114,7 @@
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
       <c r="J422" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11188,7 +11139,7 @@
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
       <c r="J423" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11213,7 +11164,7 @@
       <c r="H424" s="1"/>
       <c r="I424" s="1"/>
       <c r="J424" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11238,7 +11189,7 @@
       <c r="H425" s="1"/>
       <c r="I425" s="1"/>
       <c r="J425" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11263,7 +11214,7 @@
       <c r="H426" s="1"/>
       <c r="I426" s="1"/>
       <c r="J426" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11288,7 +11239,7 @@
       <c r="H427" s="1"/>
       <c r="I427" s="1"/>
       <c r="J427" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11313,7 +11264,7 @@
       <c r="H428" s="1"/>
       <c r="I428" s="1"/>
       <c r="J428" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11338,7 +11289,7 @@
       </c>
       <c r="I429" s="1"/>
       <c r="J429" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11363,7 +11314,7 @@
       </c>
       <c r="I430" s="1"/>
       <c r="J430" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11388,7 +11339,7 @@
       </c>
       <c r="I431" s="1"/>
       <c r="J431" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11413,7 +11364,7 @@
       </c>
       <c r="I432" s="1"/>
       <c r="J432" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11438,7 +11389,7 @@
       </c>
       <c r="I433" s="1"/>
       <c r="J433" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11463,7 +11414,7 @@
       </c>
       <c r="I434" s="1"/>
       <c r="J434" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11488,7 +11439,7 @@
       </c>
       <c r="I435" s="1"/>
       <c r="J435" s="1" t="str">
-        <f t="shared" ref="J435:J445" si="5">IF(SUM($B435:$I435)=0,"√","×")</f>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11513,7 +11464,7 @@
       </c>
       <c r="I436" s="1"/>
       <c r="J436" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11538,7 +11489,7 @@
       </c>
       <c r="I437" s="1"/>
       <c r="J437" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11563,7 +11514,7 @@
       </c>
       <c r="I438" s="1"/>
       <c r="J438" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11588,7 +11539,7 @@
       </c>
       <c r="I439" s="1"/>
       <c r="J439" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11613,7 +11564,7 @@
       </c>
       <c r="I440" s="1"/>
       <c r="J440" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11638,7 +11589,7 @@
       </c>
       <c r="I441" s="1"/>
       <c r="J441" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11663,7 +11614,7 @@
       </c>
       <c r="I442" s="1"/>
       <c r="J442" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11688,7 +11639,7 @@
       </c>
       <c r="I443" s="1"/>
       <c r="J443" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11713,7 +11664,7 @@
       </c>
       <c r="I444" s="1"/>
       <c r="J444" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11737,8 +11688,8 @@
         <v>25</v>
       </c>
       <c r="I445" s="9"/>
-      <c r="J445" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="J445" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11763,7 +11714,7 @@
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
       <c r="J446" s="1" t="str">
-        <f>IF(SUM($B446:$I446)=0,"√","×")</f>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11788,7 +11739,7 @@
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
       <c r="J447" s="1" t="str">
-        <f t="shared" ref="J447:J510" si="6">IF(SUM($B447:$I447)=0,"√","×")</f>
+        <f t="shared" si="6"/>
         <v>√</v>
       </c>
     </row>
@@ -11913,7 +11864,7 @@
       </c>
       <c r="I452" s="1"/>
       <c r="J452" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J452:J515" si="7">IF(SUM(B452:I452)=0,"√","×")</f>
         <v>√</v>
       </c>
     </row>
@@ -11938,7 +11889,7 @@
       <c r="H453" s="1"/>
       <c r="I453" s="1"/>
       <c r="J453" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -11963,7 +11914,7 @@
       <c r="H454" s="1"/>
       <c r="I454" s="1"/>
       <c r="J454" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -11988,7 +11939,7 @@
       </c>
       <c r="I455" s="1"/>
       <c r="J455" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12013,7 +11964,7 @@
       </c>
       <c r="I456" s="1"/>
       <c r="J456" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12038,7 +11989,7 @@
       </c>
       <c r="I457" s="1"/>
       <c r="J457" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12063,7 +12014,7 @@
       </c>
       <c r="I458" s="1"/>
       <c r="J458" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12088,7 +12039,7 @@
       </c>
       <c r="I459" s="1"/>
       <c r="J459" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12113,7 +12064,7 @@
       </c>
       <c r="I460" s="1"/>
       <c r="J460" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12138,7 +12089,7 @@
       </c>
       <c r="I461" s="1"/>
       <c r="J461" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12163,7 +12114,7 @@
       </c>
       <c r="I462" s="1"/>
       <c r="J462" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12188,7 +12139,7 @@
       </c>
       <c r="I463" s="1"/>
       <c r="J463" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12213,7 +12164,7 @@
       </c>
       <c r="I464" s="1"/>
       <c r="J464" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12238,7 +12189,7 @@
       <c r="H465" s="1"/>
       <c r="I465" s="1"/>
       <c r="J465" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12263,7 +12214,7 @@
       <c r="H466" s="1"/>
       <c r="I466" s="1"/>
       <c r="J466" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12288,7 +12239,7 @@
       <c r="H467" s="1"/>
       <c r="I467" s="1"/>
       <c r="J467" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12313,7 +12264,7 @@
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
       <c r="J468" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12338,7 +12289,7 @@
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
       <c r="J469" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12363,7 +12314,7 @@
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
       <c r="J470" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12388,7 +12339,7 @@
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
       <c r="J471" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12413,7 +12364,7 @@
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
       <c r="J472" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12438,7 +12389,7 @@
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
       <c r="J473" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12463,7 +12414,7 @@
       </c>
       <c r="I474" s="1"/>
       <c r="J474" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12488,7 +12439,7 @@
       </c>
       <c r="I475" s="1"/>
       <c r="J475" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12513,7 +12464,7 @@
       </c>
       <c r="I476" s="1"/>
       <c r="J476" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12538,7 +12489,7 @@
       <c r="H477" s="1"/>
       <c r="I477" s="1"/>
       <c r="J477" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12563,7 +12514,7 @@
       <c r="H478" s="1"/>
       <c r="I478" s="1"/>
       <c r="J478" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12588,7 +12539,7 @@
       <c r="H479" s="1"/>
       <c r="I479" s="1"/>
       <c r="J479" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12613,7 +12564,7 @@
       <c r="H480" s="1"/>
       <c r="I480" s="1"/>
       <c r="J480" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12638,7 +12589,7 @@
       <c r="H481" s="1"/>
       <c r="I481" s="1"/>
       <c r="J481" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12663,7 +12614,7 @@
       <c r="H482" s="1"/>
       <c r="I482" s="1"/>
       <c r="J482" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12688,7 +12639,7 @@
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
       <c r="J483" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12713,7 +12664,7 @@
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
       <c r="J484" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12738,7 +12689,7 @@
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
       <c r="J485" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12763,7 +12714,7 @@
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
       <c r="J486" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12788,7 +12739,7 @@
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
       <c r="J487" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12813,7 +12764,7 @@
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
       <c r="J488" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12838,7 +12789,7 @@
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
       <c r="J489" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12863,7 +12814,7 @@
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
       <c r="J490" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12888,7 +12839,7 @@
       <c r="H491" s="1"/>
       <c r="I491" s="1"/>
       <c r="J491" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12913,7 +12864,7 @@
       <c r="H492" s="1"/>
       <c r="I492" s="1"/>
       <c r="J492" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12938,7 +12889,7 @@
       <c r="H493" s="1"/>
       <c r="I493" s="1"/>
       <c r="J493" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12963,7 +12914,7 @@
       <c r="H494" s="1"/>
       <c r="I494" s="1"/>
       <c r="J494" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -12988,7 +12939,7 @@
       <c r="H495" s="1"/>
       <c r="I495" s="1"/>
       <c r="J495" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13013,7 +12964,7 @@
       <c r="H496" s="1"/>
       <c r="I496" s="1"/>
       <c r="J496" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13038,7 +12989,7 @@
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
       <c r="J497" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13063,7 +13014,7 @@
       <c r="H498" s="1"/>
       <c r="I498" s="1"/>
       <c r="J498" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13088,7 +13039,7 @@
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
       <c r="J499" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13113,7 +13064,7 @@
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
       <c r="J500" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13138,7 +13089,7 @@
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
       <c r="J501" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13163,7 +13114,7 @@
       <c r="H502" s="1"/>
       <c r="I502" s="1"/>
       <c r="J502" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13188,7 +13139,7 @@
       </c>
       <c r="I503" s="1"/>
       <c r="J503" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13213,7 +13164,7 @@
       </c>
       <c r="I504" s="1"/>
       <c r="J504" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13238,7 +13189,7 @@
       </c>
       <c r="I505" s="1"/>
       <c r="J505" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13263,7 +13214,7 @@
       </c>
       <c r="I506" s="1"/>
       <c r="J506" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13288,7 +13239,7 @@
       </c>
       <c r="I507" s="1"/>
       <c r="J507" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13313,7 +13264,7 @@
       </c>
       <c r="I508" s="1"/>
       <c r="J508" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13338,7 +13289,7 @@
       <c r="H509" s="1"/>
       <c r="I509" s="1"/>
       <c r="J509" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13363,7 +13314,7 @@
       <c r="H510" s="1"/>
       <c r="I510" s="1"/>
       <c r="J510" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13388,7 +13339,7 @@
       </c>
       <c r="I511" s="1"/>
       <c r="J511" s="1" t="str">
-        <f t="shared" ref="J511:J571" si="7">IF(SUM($B511:$I511)=0,"√","×")</f>
+        <f t="shared" si="7"/>
         <v>√</v>
       </c>
     </row>
@@ -13513,7 +13464,7 @@
       </c>
       <c r="I516" s="1"/>
       <c r="J516" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J516:J579" si="8">IF(SUM(B516:I516)=0,"√","×")</f>
         <v>√</v>
       </c>
     </row>
@@ -13538,7 +13489,7 @@
       </c>
       <c r="I517" s="1"/>
       <c r="J517" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13563,7 +13514,7 @@
       </c>
       <c r="I518" s="1"/>
       <c r="J518" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13588,7 +13539,7 @@
       <c r="H519" s="1"/>
       <c r="I519" s="1"/>
       <c r="J519" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13613,7 +13564,7 @@
       <c r="H520" s="1"/>
       <c r="I520" s="1"/>
       <c r="J520" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13638,7 +13589,7 @@
       <c r="H521" s="1"/>
       <c r="I521" s="1"/>
       <c r="J521" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13663,7 +13614,7 @@
       <c r="H522" s="1"/>
       <c r="I522" s="1"/>
       <c r="J522" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13688,7 +13639,7 @@
       <c r="H523" s="1"/>
       <c r="I523" s="1"/>
       <c r="J523" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13713,7 +13664,7 @@
       <c r="H524" s="1"/>
       <c r="I524" s="1"/>
       <c r="J524" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13738,7 +13689,7 @@
       <c r="H525" s="1"/>
       <c r="I525" s="1"/>
       <c r="J525" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13763,7 +13714,7 @@
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
       <c r="J526" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13788,7 +13739,7 @@
       <c r="H527" s="1"/>
       <c r="I527" s="1"/>
       <c r="J527" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13813,7 +13764,7 @@
       <c r="H528" s="1"/>
       <c r="I528" s="1"/>
       <c r="J528" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13838,7 +13789,7 @@
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
       <c r="J529" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13863,7 +13814,7 @@
       <c r="H530" s="1"/>
       <c r="I530" s="1"/>
       <c r="J530" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13888,7 +13839,7 @@
       <c r="H531" s="1"/>
       <c r="I531" s="1"/>
       <c r="J531" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13913,7 +13864,7 @@
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
       <c r="J532" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13938,7 +13889,7 @@
       <c r="H533" s="1"/>
       <c r="I533" s="1"/>
       <c r="J533" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13963,7 +13914,7 @@
       <c r="H534" s="1"/>
       <c r="I534" s="1"/>
       <c r="J534" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -13988,7 +13939,7 @@
       <c r="H535" s="1"/>
       <c r="I535" s="1"/>
       <c r="J535" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14013,7 +13964,7 @@
       <c r="H536" s="1"/>
       <c r="I536" s="1"/>
       <c r="J536" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14038,7 +13989,7 @@
       <c r="H537" s="1"/>
       <c r="I537" s="1"/>
       <c r="J537" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14063,7 +14014,7 @@
       <c r="H538" s="1"/>
       <c r="I538" s="1"/>
       <c r="J538" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14088,7 +14039,7 @@
       <c r="H539" s="1"/>
       <c r="I539" s="1"/>
       <c r="J539" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14113,7 +14064,7 @@
       <c r="H540" s="1"/>
       <c r="I540" s="1"/>
       <c r="J540" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14138,7 +14089,7 @@
       <c r="H541" s="1"/>
       <c r="I541" s="1"/>
       <c r="J541" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14163,7 +14114,7 @@
       <c r="H542" s="1"/>
       <c r="I542" s="1"/>
       <c r="J542" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14188,7 +14139,7 @@
       <c r="H543" s="1"/>
       <c r="I543" s="1"/>
       <c r="J543" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14213,7 +14164,7 @@
       <c r="H544" s="1"/>
       <c r="I544" s="1"/>
       <c r="J544" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14238,7 +14189,7 @@
       <c r="H545" s="1"/>
       <c r="I545" s="1"/>
       <c r="J545" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14263,7 +14214,7 @@
       <c r="H546" s="1"/>
       <c r="I546" s="1"/>
       <c r="J546" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14288,7 +14239,7 @@
       <c r="H547" s="1"/>
       <c r="I547" s="1"/>
       <c r="J547" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14313,7 +14264,7 @@
       <c r="H548" s="1"/>
       <c r="I548" s="1"/>
       <c r="J548" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14338,7 +14289,7 @@
       <c r="H549" s="1"/>
       <c r="I549" s="1"/>
       <c r="J549" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14363,7 +14314,7 @@
       <c r="H550" s="1"/>
       <c r="I550" s="1"/>
       <c r="J550" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14388,7 +14339,7 @@
       <c r="H551" s="1"/>
       <c r="I551" s="1"/>
       <c r="J551" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14413,7 +14364,7 @@
       </c>
       <c r="I552" s="1"/>
       <c r="J552" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14438,7 +14389,7 @@
       </c>
       <c r="I553" s="1"/>
       <c r="J553" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14463,7 +14414,7 @@
       </c>
       <c r="I554" s="1"/>
       <c r="J554" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14488,7 +14439,7 @@
       </c>
       <c r="I555" s="1"/>
       <c r="J555" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14513,7 +14464,7 @@
       </c>
       <c r="I556" s="1"/>
       <c r="J556" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14538,7 +14489,7 @@
       </c>
       <c r="I557" s="1"/>
       <c r="J557" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14563,7 +14514,7 @@
       </c>
       <c r="I558" s="1"/>
       <c r="J558" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14588,7 +14539,7 @@
         <v>-142</v>
       </c>
       <c r="J559" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14613,7 +14564,7 @@
         <v>28</v>
       </c>
       <c r="J560" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14638,7 +14589,7 @@
         <v>98</v>
       </c>
       <c r="J561" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14663,7 +14614,7 @@
         <v>-24</v>
       </c>
       <c r="J562" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14688,7 +14639,7 @@
         <v>-82</v>
       </c>
       <c r="J563" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14713,7 +14664,7 @@
         <v>134</v>
       </c>
       <c r="J564" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14738,7 +14689,7 @@
         <v>52</v>
       </c>
       <c r="J565" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14763,7 +14714,7 @@
         <v>86</v>
       </c>
       <c r="J566" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14788,7 +14739,7 @@
         <v>86</v>
       </c>
       <c r="J567" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14813,7 +14764,7 @@
       </c>
       <c r="I568" s="1"/>
       <c r="J568" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14838,7 +14789,7 @@
       </c>
       <c r="I569" s="1"/>
       <c r="J569" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14863,7 +14814,7 @@
       </c>
       <c r="I570" s="1"/>
       <c r="J570" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14888,7 +14839,7 @@
       </c>
       <c r="I571" s="1"/>
       <c r="J571" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14913,7 +14864,7 @@
       </c>
       <c r="I572" s="1"/>
       <c r="J572" s="1" t="str">
-        <f>IF(SUM($B572:$I572)=0,"√","×")</f>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14938,7 +14889,7 @@
       </c>
       <c r="I573" s="1"/>
       <c r="J573" s="1" t="str">
-        <f>IF(SUM($B573:$I573)=0,"√","×")</f>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14963,7 +14914,7 @@
       </c>
       <c r="I574" s="1"/>
       <c r="J574" s="1" t="str">
-        <f>IF(SUM($B574:$I574)=0,"√","×")</f>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -14988,7 +14939,7 @@
       </c>
       <c r="I575" s="1"/>
       <c r="J575" s="1" t="str">
-        <f t="shared" ref="J575:J638" si="8">IF(SUM($B575:$I575)=0,"√","×")</f>
+        <f t="shared" si="8"/>
         <v>√</v>
       </c>
     </row>
@@ -15113,7 +15064,7 @@
         <v>92</v>
       </c>
       <c r="J580" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J580:J643" si="9">IF(SUM(B580:I580)=0,"√","×")</f>
         <v>√</v>
       </c>
     </row>
@@ -15138,7 +15089,7 @@
         <v>-170</v>
       </c>
       <c r="J581" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15163,7 +15114,7 @@
         <v>44</v>
       </c>
       <c r="J582" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15188,7 +15139,7 @@
         <v>-210</v>
       </c>
       <c r="J583" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15213,7 +15164,7 @@
         <v>-186</v>
       </c>
       <c r="J584" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15238,7 +15189,7 @@
         <v>44</v>
       </c>
       <c r="J585" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15263,7 +15214,7 @@
         <v>62</v>
       </c>
       <c r="J586" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15288,7 +15239,7 @@
         <v>108</v>
       </c>
       <c r="J587" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15313,7 +15264,7 @@
       <c r="H588" s="1"/>
       <c r="I588" s="1"/>
       <c r="J588" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15338,7 +15289,7 @@
       <c r="H589" s="1"/>
       <c r="I589" s="1"/>
       <c r="J589" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15363,7 +15314,7 @@
       </c>
       <c r="I590" s="1"/>
       <c r="J590" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15388,7 +15339,7 @@
       </c>
       <c r="I591" s="1"/>
       <c r="J591" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15413,7 +15364,7 @@
         <v>-100</v>
       </c>
       <c r="J592" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15438,7 +15389,7 @@
         <v>-112</v>
       </c>
       <c r="J593" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15463,7 +15414,7 @@
         <v>142</v>
       </c>
       <c r="J594" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15488,7 +15439,7 @@
       </c>
       <c r="I595" s="1"/>
       <c r="J595" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15513,7 +15464,7 @@
       </c>
       <c r="I596" s="1"/>
       <c r="J596" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15538,7 +15489,7 @@
         <v>138</v>
       </c>
       <c r="J597" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15563,7 +15514,7 @@
         <v>-50</v>
       </c>
       <c r="J598" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15588,7 +15539,7 @@
         <v>-48</v>
       </c>
       <c r="J599" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15613,7 +15564,7 @@
         <v>24</v>
       </c>
       <c r="J600" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15638,7 +15589,7 @@
         <v>162</v>
       </c>
       <c r="J601" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15663,7 +15614,7 @@
       </c>
       <c r="I602" s="1"/>
       <c r="J602" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15688,7 +15639,7 @@
       </c>
       <c r="I603" s="1"/>
       <c r="J603" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15713,7 +15664,7 @@
       </c>
       <c r="I604" s="1"/>
       <c r="J604" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15738,7 +15689,7 @@
       </c>
       <c r="I605" s="1"/>
       <c r="J605" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15763,7 +15714,7 @@
       <c r="H606" s="1"/>
       <c r="I606" s="1"/>
       <c r="J606" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15788,7 +15739,7 @@
       <c r="H607" s="1"/>
       <c r="I607" s="1"/>
       <c r="J607" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15813,7 +15764,7 @@
       <c r="H608" s="1"/>
       <c r="I608" s="1"/>
       <c r="J608" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15838,7 +15789,7 @@
       <c r="H609" s="1"/>
       <c r="I609" s="1"/>
       <c r="J609" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15863,7 +15814,7 @@
       <c r="H610" s="1"/>
       <c r="I610" s="1"/>
       <c r="J610" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15888,7 +15839,7 @@
       <c r="H611" s="1"/>
       <c r="I611" s="1"/>
       <c r="J611" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15913,7 +15864,7 @@
       <c r="H612" s="1"/>
       <c r="I612" s="1"/>
       <c r="J612" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15938,7 +15889,7 @@
       </c>
       <c r="I613" s="1"/>
       <c r="J613" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15963,7 +15914,7 @@
       </c>
       <c r="I614" s="1"/>
       <c r="J614" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -15988,7 +15939,7 @@
       </c>
       <c r="I615" s="1"/>
       <c r="J615" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16013,7 +15964,7 @@
       <c r="H616" s="1"/>
       <c r="I616" s="1"/>
       <c r="J616" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16038,7 +15989,7 @@
       <c r="H617" s="1"/>
       <c r="I617" s="1"/>
       <c r="J617" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16063,7 +16014,7 @@
       <c r="H618" s="1"/>
       <c r="I618" s="1"/>
       <c r="J618" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16086,7 +16037,7 @@
       </c>
       <c r="I619" s="1"/>
       <c r="J619" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16111,7 +16062,7 @@
       <c r="H620" s="1"/>
       <c r="I620" s="1"/>
       <c r="J620" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16134,7 +16085,7 @@
       </c>
       <c r="I621" s="1"/>
       <c r="J621" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16157,7 +16108,7 @@
       </c>
       <c r="I622" s="1"/>
       <c r="J622" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16182,7 +16133,7 @@
       <c r="H623" s="1"/>
       <c r="I623" s="1"/>
       <c r="J623" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16205,7 +16156,7 @@
       </c>
       <c r="I624" s="1"/>
       <c r="J624" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16228,7 +16179,7 @@
       </c>
       <c r="I625" s="1"/>
       <c r="J625" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16253,7 +16204,7 @@
         <v>182</v>
       </c>
       <c r="J626" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16276,7 +16227,7 @@
       </c>
       <c r="I627" s="1"/>
       <c r="J627" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16301,7 +16252,7 @@
         <v>6</v>
       </c>
       <c r="J628" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16324,7 +16275,7 @@
       </c>
       <c r="I629" s="1"/>
       <c r="J629" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16347,7 +16298,7 @@
       </c>
       <c r="I630" s="1"/>
       <c r="J630" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16372,7 +16323,7 @@
         <v>10</v>
       </c>
       <c r="J631" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16395,7 +16346,7 @@
       </c>
       <c r="I632" s="1"/>
       <c r="J632" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16420,7 +16371,7 @@
         <v>22</v>
       </c>
       <c r="J633" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16445,7 +16396,7 @@
       </c>
       <c r="I634" s="1"/>
       <c r="J634" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16470,7 +16421,7 @@
       </c>
       <c r="I635" s="1"/>
       <c r="J635" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16495,7 +16446,7 @@
       </c>
       <c r="I636" s="1"/>
       <c r="J636" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16520,7 +16471,7 @@
         <v>-38</v>
       </c>
       <c r="J637" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16545,7 +16496,7 @@
         <v>146</v>
       </c>
       <c r="J638" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16570,7 +16521,7 @@
         <v>222</v>
       </c>
       <c r="J639" s="1" t="str">
-        <f t="shared" ref="J639:J702" si="9">IF(SUM($B639:$I639)=0,"√","×")</f>
+        <f t="shared" si="9"/>
         <v>√</v>
       </c>
     </row>
@@ -16695,7 +16646,7 @@
         <v>90</v>
       </c>
       <c r="J644" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J644:J707" si="10">IF(SUM(B644:I644)=0,"√","×")</f>
         <v>√</v>
       </c>
     </row>
@@ -16720,7 +16671,7 @@
         <v>-160</v>
       </c>
       <c r="J645" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -16745,7 +16696,7 @@
         <v>30</v>
       </c>
       <c r="J646" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -16770,7 +16721,7 @@
         <v>-82</v>
       </c>
       <c r="J647" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -16795,7 +16746,7 @@
       <c r="H648" s="1"/>
       <c r="I648" s="1"/>
       <c r="J648" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -16820,7 +16771,7 @@
       <c r="H649" s="1"/>
       <c r="I649" s="1"/>
       <c r="J649" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -16845,7 +16796,7 @@
       <c r="H650" s="1"/>
       <c r="I650" s="1"/>
       <c r="J650" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -16870,7 +16821,7 @@
       <c r="H651" s="1"/>
       <c r="I651" s="1"/>
       <c r="J651" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -16895,7 +16846,7 @@
         <v>-78</v>
       </c>
       <c r="J652" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -16920,7 +16871,7 @@
       <c r="H653" s="1"/>
       <c r="I653" s="1"/>
       <c r="J653" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -16945,7 +16896,7 @@
       <c r="H654" s="1"/>
       <c r="I654" s="1"/>
       <c r="J654" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -16970,7 +16921,7 @@
         <v>136</v>
       </c>
       <c r="J655" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -16995,7 +16946,7 @@
       <c r="H656" s="1"/>
       <c r="I656" s="1"/>
       <c r="J656" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17020,7 +16971,7 @@
         <v>-38</v>
       </c>
       <c r="J657" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17045,7 +16996,7 @@
         <v>-50</v>
       </c>
       <c r="J658" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17070,7 +17021,7 @@
       <c r="H659" s="1"/>
       <c r="I659" s="1"/>
       <c r="J659" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17094,7 +17045,7 @@
         <v>234</v>
       </c>
       <c r="J660" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17119,7 +17070,7 @@
         <v>34</v>
       </c>
       <c r="J661" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17144,7 +17095,7 @@
         <v>50</v>
       </c>
       <c r="J662" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17169,7 +17120,7 @@
         <v>-42</v>
       </c>
       <c r="J663" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17194,7 +17145,7 @@
         <v>-34</v>
       </c>
       <c r="J664" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17219,7 +17170,7 @@
       <c r="H665" s="1"/>
       <c r="I665" s="1"/>
       <c r="J665" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17244,7 +17195,7 @@
       <c r="H666" s="1"/>
       <c r="I666" s="1"/>
       <c r="J666" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17269,7 +17220,7 @@
       </c>
       <c r="I667" s="1"/>
       <c r="J667" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17294,7 +17245,7 @@
       </c>
       <c r="I668" s="1"/>
       <c r="J668" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17319,7 +17270,7 @@
       </c>
       <c r="I669" s="1"/>
       <c r="J669" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17344,7 +17295,7 @@
       </c>
       <c r="I670" s="1"/>
       <c r="J670" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17369,7 +17320,7 @@
       </c>
       <c r="I671" s="1"/>
       <c r="J671" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17394,7 +17345,7 @@
       </c>
       <c r="I672" s="1"/>
       <c r="J672" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17419,7 +17370,7 @@
       </c>
       <c r="I673" s="1"/>
       <c r="J673" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17444,7 +17395,7 @@
       </c>
       <c r="I674" s="1"/>
       <c r="J674" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17469,7 +17420,7 @@
         <v>-46</v>
       </c>
       <c r="J675" s="1" t="str">
-        <f>IF(SUM($B675:$I675)=0,"√","×")</f>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17494,7 +17445,7 @@
         <v>-2</v>
       </c>
       <c r="J676" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17519,7 +17470,7 @@
         <v>-238</v>
       </c>
       <c r="J677" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17544,7 +17495,7 @@
         <v>268</v>
       </c>
       <c r="J678" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17569,7 +17520,7 @@
         <v>62</v>
       </c>
       <c r="J679" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17594,7 +17545,7 @@
         <v>-206</v>
       </c>
       <c r="J680" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17619,7 +17570,7 @@
         <v>-28</v>
       </c>
       <c r="J681" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17644,7 +17595,7 @@
         <v>-106</v>
       </c>
       <c r="J682" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17669,7 +17620,7 @@
         <v>-76</v>
       </c>
       <c r="J683" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17694,7 +17645,7 @@
       <c r="H684" s="1"/>
       <c r="I684" s="1"/>
       <c r="J684" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17719,7 +17670,7 @@
       <c r="H685" s="1"/>
       <c r="I685" s="1"/>
       <c r="J685" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17744,7 +17695,7 @@
       <c r="H686" s="1"/>
       <c r="I686" s="1"/>
       <c r="J686" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17769,7 +17720,7 @@
       <c r="H687" s="1"/>
       <c r="I687" s="1"/>
       <c r="J687" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17794,7 +17745,7 @@
         <v>152</v>
       </c>
       <c r="J688" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17819,7 +17770,7 @@
         <v>52</v>
       </c>
       <c r="J689" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17844,7 +17795,7 @@
         <v>-102</v>
       </c>
       <c r="J690" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17869,7 +17820,7 @@
         <v>-18</v>
       </c>
       <c r="J691" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17894,7 +17845,7 @@
         <v>-14</v>
       </c>
       <c r="J692" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17919,7 +17870,7 @@
         <v>-90</v>
       </c>
       <c r="J693" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17944,7 +17895,7 @@
         <v>-196</v>
       </c>
       <c r="J694" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17969,7 +17920,7 @@
         <v>-162</v>
       </c>
       <c r="J695" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -17994,7 +17945,7 @@
         <v>128</v>
       </c>
       <c r="J696" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -18019,7 +17970,7 @@
         <v>-60</v>
       </c>
       <c r="J697" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -18044,7 +17995,7 @@
         <v>108</v>
       </c>
       <c r="J698" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -18069,7 +18020,7 @@
       </c>
       <c r="I699" s="1"/>
       <c r="J699" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -18094,7 +18045,7 @@
       </c>
       <c r="I700" s="1"/>
       <c r="J700" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -18119,7 +18070,7 @@
         <v>330</v>
       </c>
       <c r="J701" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -18144,7 +18095,7 @@
         <v>242</v>
       </c>
       <c r="J702" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -18169,7 +18120,7 @@
         <v>-142</v>
       </c>
       <c r="J703" s="1" t="str">
-        <f t="shared" ref="J703:J748" si="10">IF(SUM($B703:$I703)=0,"√","×")</f>
+        <f t="shared" si="10"/>
         <v>√</v>
       </c>
     </row>
@@ -18294,7 +18245,7 @@
       </c>
       <c r="I708" s="1"/>
       <c r="J708" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J708:J771" si="11">IF(SUM(B708:I708)=0,"√","×")</f>
         <v>√</v>
       </c>
     </row>
@@ -18319,7 +18270,7 @@
         <v>-32</v>
       </c>
       <c r="J709" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18344,7 +18295,7 @@
         <v>30</v>
       </c>
       <c r="J710" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18369,7 +18320,7 @@
       </c>
       <c r="I711" s="1"/>
       <c r="J711" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18394,7 +18345,7 @@
       </c>
       <c r="I712" s="1"/>
       <c r="J712" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18419,7 +18370,7 @@
       </c>
       <c r="I713" s="1"/>
       <c r="J713" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18444,7 +18395,7 @@
         <v>20</v>
       </c>
       <c r="J714" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18469,7 +18420,7 @@
         <v>-130</v>
       </c>
       <c r="J715" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18494,7 +18445,7 @@
         <v>-174</v>
       </c>
       <c r="J716" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18519,7 +18470,7 @@
         <v>-154</v>
       </c>
       <c r="J717" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18544,7 +18495,7 @@
       </c>
       <c r="I718" s="1"/>
       <c r="J718" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18569,7 +18520,7 @@
       </c>
       <c r="I719" s="1"/>
       <c r="J719" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18594,7 +18545,7 @@
       </c>
       <c r="I720" s="1"/>
       <c r="J720" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18619,7 +18570,7 @@
       </c>
       <c r="I721" s="1"/>
       <c r="J721" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18644,7 +18595,7 @@
       </c>
       <c r="I722" s="1"/>
       <c r="J722" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18669,7 +18620,7 @@
       </c>
       <c r="I723" s="1"/>
       <c r="J723" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18694,7 +18645,7 @@
       </c>
       <c r="I724" s="1"/>
       <c r="J724" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18719,7 +18670,7 @@
       </c>
       <c r="I725" s="1"/>
       <c r="J725" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18748,7 +18699,7 @@
       </c>
       <c r="I726" s="1"/>
       <c r="J726" s="1" t="str">
-        <f>IF(SUM($B726:$I726)=0,"√","×")</f>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18773,7 +18724,7 @@
         <v>2</v>
       </c>
       <c r="J727" s="1" t="str">
-        <f>IF(SUM($B727:$I727)=0,"√","×")</f>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18798,7 +18749,7 @@
         <v>120</v>
       </c>
       <c r="J728" s="1" t="str">
-        <f>IF(SUM($B728:$I728)=0,"√","×")</f>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18823,7 +18774,7 @@
         <v>228</v>
       </c>
       <c r="J729" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18848,7 +18799,7 @@
         <v>250</v>
       </c>
       <c r="J730" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18873,7 +18824,7 @@
         <v>-114</v>
       </c>
       <c r="J731" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18898,7 +18849,7 @@
         <v>-32</v>
       </c>
       <c r="J732" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18923,7 +18874,7 @@
         <v>-136</v>
       </c>
       <c r="J733" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18948,7 +18899,7 @@
         <v>110</v>
       </c>
       <c r="J734" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18973,7 +18924,7 @@
         <v>-52</v>
       </c>
       <c r="J735" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -18998,7 +18949,7 @@
         <v>-112</v>
       </c>
       <c r="J736" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19023,7 +18974,7 @@
         <v>-28</v>
       </c>
       <c r="J737" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19048,7 +18999,7 @@
         <v>74</v>
       </c>
       <c r="J738" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19073,7 +19024,7 @@
         <v>82</v>
       </c>
       <c r="J739" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19098,7 +19049,7 @@
         <v>-34</v>
       </c>
       <c r="J740" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19123,7 +19074,7 @@
       <c r="H741" s="1"/>
       <c r="I741" s="1"/>
       <c r="J741" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19148,7 +19099,7 @@
       </c>
       <c r="I742" s="1"/>
       <c r="J742" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19173,7 +19124,7 @@
       </c>
       <c r="I743" s="1"/>
       <c r="J743" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19198,7 +19149,7 @@
       </c>
       <c r="I744" s="1"/>
       <c r="J744" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19223,7 +19174,7 @@
       </c>
       <c r="I745" s="1"/>
       <c r="J745" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19248,7 +19199,7 @@
       </c>
       <c r="I746" s="1"/>
       <c r="J746" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19273,7 +19224,7 @@
       </c>
       <c r="I747" s="1"/>
       <c r="J747" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19298,7 +19249,7 @@
       </c>
       <c r="I748" s="1"/>
       <c r="J748" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19323,7 +19274,7 @@
       </c>
       <c r="I749" s="1"/>
       <c r="J749" s="1" t="str">
-        <f t="shared" ref="J749:J763" si="11">IF(SUM($B749:$I749)=0,"√","×")</f>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19698,7 +19649,7 @@
       </c>
       <c r="I764" s="1"/>
       <c r="J764" s="1" t="str">
-        <f t="shared" ref="J764:J772" si="12">IF(SUM($B764:$I764)=0,"√","×")</f>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19723,7 +19674,7 @@
       </c>
       <c r="I765" s="1"/>
       <c r="J765" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19748,7 +19699,7 @@
       </c>
       <c r="I766" s="1"/>
       <c r="J766" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19773,7 +19724,7 @@
       </c>
       <c r="I767" s="1"/>
       <c r="J767" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19798,7 +19749,7 @@
       </c>
       <c r="I768" s="1"/>
       <c r="J768" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19823,7 +19774,7 @@
       </c>
       <c r="I769" s="1"/>
       <c r="J769" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
@@ -19848,82 +19799,132 @@
         <v>-36</v>
       </c>
       <c r="J770" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
     <row r="771" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A771" s="1"/>
+      <c r="A771" s="5">
+        <v>44262.640972222223</v>
+      </c>
       <c r="B771" s="1"/>
-      <c r="C771" s="1"/>
-      <c r="D771" s="1"/>
-      <c r="E771" s="1"/>
+      <c r="C771" s="1">
+        <v>-36</v>
+      </c>
+      <c r="D771" s="1">
+        <v>188</v>
+      </c>
+      <c r="E771" s="1">
+        <v>-116</v>
+      </c>
       <c r="F771" s="1"/>
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
-      <c r="I771" s="1"/>
+      <c r="I771" s="1">
+        <v>-36</v>
+      </c>
       <c r="J771" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>√</v>
       </c>
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A772" s="1"/>
-      <c r="B772" s="1"/>
-      <c r="C772" s="1"/>
-      <c r="D772" s="1"/>
-      <c r="E772" s="1"/>
+      <c r="A772" s="5">
+        <v>44262.657638888886</v>
+      </c>
+      <c r="B772" s="1">
+        <v>-18</v>
+      </c>
+      <c r="C772" s="1">
+        <v>116</v>
+      </c>
+      <c r="D772" s="1">
+        <v>-166</v>
+      </c>
+      <c r="E772" s="1">
+        <v>68</v>
+      </c>
       <c r="F772" s="1"/>
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
       <c r="I772" s="1"/>
       <c r="J772" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J772:J791" si="12">IF(SUM(B772:I772)=0,"√","×")</f>
         <v>√</v>
       </c>
     </row>
     <row r="773" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A773" s="1"/>
-      <c r="B773" s="1"/>
-      <c r="C773" s="1"/>
-      <c r="D773" s="1"/>
-      <c r="E773" s="1"/>
+      <c r="A773" s="5">
+        <v>44262.676388888889</v>
+      </c>
+      <c r="B773" s="1">
+        <v>-134</v>
+      </c>
+      <c r="C773" s="1">
+        <v>138</v>
+      </c>
+      <c r="D773" s="1">
+        <v>112</v>
+      </c>
+      <c r="E773" s="1">
+        <v>-116</v>
+      </c>
       <c r="F773" s="1"/>
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
       <c r="I773" s="1"/>
       <c r="J773" s="1" t="str">
-        <f t="shared" ref="J773:J791" si="13">IF(SUM($B773:$I773)=0,"√","×")</f>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
     <row r="774" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A774" s="1"/>
-      <c r="B774" s="1"/>
-      <c r="C774" s="1"/>
-      <c r="D774" s="1"/>
-      <c r="E774" s="1"/>
+      <c r="A774" s="5">
+        <v>44262.691666666666</v>
+      </c>
+      <c r="B774" s="1">
+        <v>40</v>
+      </c>
+      <c r="C774" s="1">
+        <v>116</v>
+      </c>
+      <c r="D774" s="1">
+        <v>-92</v>
+      </c>
+      <c r="E774" s="1">
+        <v>-64</v>
+      </c>
       <c r="F774" s="1"/>
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
       <c r="I774" s="1"/>
       <c r="J774" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A775" s="1"/>
-      <c r="B775" s="1"/>
-      <c r="C775" s="1"/>
-      <c r="D775" s="1"/>
-      <c r="E775" s="1"/>
+      <c r="A775" s="5">
+        <v>44262.710416666669</v>
+      </c>
+      <c r="B775" s="1">
+        <v>-104</v>
+      </c>
+      <c r="C775" s="1">
+        <v>200</v>
+      </c>
+      <c r="D775" s="1">
+        <v>-112</v>
+      </c>
+      <c r="E775" s="1">
+        <v>16</v>
+      </c>
       <c r="F775" s="1"/>
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
       <c r="I775" s="1"/>
       <c r="J775" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -19938,7 +19939,7 @@
       <c r="H776" s="1"/>
       <c r="I776" s="1"/>
       <c r="J776" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -19953,7 +19954,7 @@
       <c r="H777" s="1"/>
       <c r="I777" s="1"/>
       <c r="J777" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -19968,7 +19969,7 @@
       <c r="H778" s="1"/>
       <c r="I778" s="1"/>
       <c r="J778" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -19983,7 +19984,7 @@
       <c r="H779" s="1"/>
       <c r="I779" s="1"/>
       <c r="J779" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -19998,7 +19999,7 @@
       <c r="H780" s="1"/>
       <c r="I780" s="1"/>
       <c r="J780" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -20013,7 +20014,7 @@
       <c r="H781" s="1"/>
       <c r="I781" s="1"/>
       <c r="J781" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -20028,7 +20029,7 @@
       <c r="H782" s="1"/>
       <c r="I782" s="1"/>
       <c r="J782" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -20043,7 +20044,7 @@
       <c r="H783" s="1"/>
       <c r="I783" s="1"/>
       <c r="J783" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -20058,7 +20059,7 @@
       <c r="H784" s="1"/>
       <c r="I784" s="1"/>
       <c r="J784" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -20073,7 +20074,7 @@
       <c r="H785" s="1"/>
       <c r="I785" s="1"/>
       <c r="J785" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -20088,7 +20089,7 @@
       <c r="H786" s="1"/>
       <c r="I786" s="1"/>
       <c r="J786" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -20103,7 +20104,7 @@
       <c r="H787" s="1"/>
       <c r="I787" s="1"/>
       <c r="J787" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -20118,7 +20119,7 @@
       <c r="H788" s="1"/>
       <c r="I788" s="1"/>
       <c r="J788" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -20133,7 +20134,7 @@
       <c r="H789" s="1"/>
       <c r="I789" s="1"/>
       <c r="J789" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -20148,7 +20149,7 @@
       <c r="H790" s="1"/>
       <c r="I790" s="1"/>
       <c r="J790" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
@@ -20163,12 +20164,22 @@
       <c r="H791" s="1"/>
       <c r="I791" s="1"/>
       <c r="J791" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>√</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J3:J791">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>×</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J791">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"×"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/战绩.xlsx
+++ b/战绩.xlsx
@@ -523,8 +523,8 @@
   <dimension ref="A1:J791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A758" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A775" sqref="A775"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
